--- a/璀璨澜庭/装修预算表-20230709.xlsx
+++ b/璀璨澜庭/装修预算表-20230709.xlsx
@@ -456,10 +456,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全蜂窝铝阳台洗衣柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>样品打折，质量估计一般</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -485,10 +481,6 @@
   </si>
   <si>
     <t>阳台通铺新增地砖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实木床架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -551,6 +543,15 @@
   </si>
   <si>
     <t>4个垃圾桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全蜂窝铝阳台洗衣柜
+原费用5200，后来安装没有背板，退款200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实木床架，没有床头柜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -708,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -767,14 +768,23 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -783,52 +793,52 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1136,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47:F53"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1171,7 +1181,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="36" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="33" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1191,7 +1201,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="35"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1207,7 +1217,7 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="34" t="s">
         <v>103</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1225,7 +1235,7 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.15">
-      <c r="A5" s="27"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="17" t="s">
         <v>107</v>
       </c>
@@ -1239,7 +1249,7 @@
         <v>1683</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1291,7 +1301,7 @@
       <c r="D8" s="10">
         <v>10000</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="23">
         <v>28005</v>
       </c>
       <c r="F8" s="31" t="s">
@@ -1299,7 +1309,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="32"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
@@ -1309,11 +1319,11 @@
       <c r="D9" s="10">
         <v>6000</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="32"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="10" t="s">
         <v>21</v>
       </c>
@@ -1323,11 +1333,11 @@
       <c r="D10" s="10">
         <v>6000</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="32"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="10" t="s">
         <v>5</v>
       </c>
@@ -1337,11 +1347,11 @@
       <c r="D11" s="10">
         <v>6000</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="32"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="10" t="s">
         <v>54</v>
       </c>
@@ -1351,11 +1361,11 @@
       <c r="D12" s="10">
         <v>6000</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="32"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="10" t="s">
         <v>91</v>
       </c>
@@ -1365,11 +1375,11 @@
       <c r="D13" s="10">
         <v>0</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="32"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="10" t="s">
         <v>93</v>
       </c>
@@ -1386,8 +1396,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="33"/>
+    <row r="15" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A15" s="39"/>
       <c r="B15" s="10" t="s">
         <v>87</v>
       </c>
@@ -1398,14 +1408,14 @@
         <v>4000</v>
       </c>
       <c r="E15" s="15">
-        <v>5200</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>108</v>
+        <v>5000</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="34" t="s">
         <v>71</v>
       </c>
       <c r="B16" s="14" t="s">
@@ -1417,15 +1427,15 @@
       <c r="D16" s="14">
         <v>3000</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="23">
         <v>17170</v>
       </c>
-      <c r="F16" s="34" t="s">
-        <v>117</v>
+      <c r="F16" s="32" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="24"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="14" t="s">
         <v>69</v>
       </c>
@@ -1435,11 +1445,11 @@
       <c r="D17" s="14">
         <v>2500</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="24"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="14" t="s">
         <v>18</v>
       </c>
@@ -1449,11 +1459,11 @@
       <c r="D18" s="14">
         <v>1500</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="24"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="14" t="s">
         <v>20</v>
       </c>
@@ -1463,11 +1473,11 @@
       <c r="D19" s="14">
         <v>1000</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="24"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="14" t="s">
         <v>19</v>
       </c>
@@ -1477,11 +1487,11 @@
       <c r="D20" s="14">
         <v>1000</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="25"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="14" t="s">
         <v>14</v>
       </c>
@@ -1495,11 +1505,11 @@
         <v>2600</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="34" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -1515,11 +1525,11 @@
         <v>1700</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="29"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="10" t="s">
         <v>26</v>
       </c>
@@ -1533,47 +1543,47 @@
         <v>6999</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="29"/>
-      <c r="B24" s="38" t="s">
+      <c r="A24" s="40"/>
+      <c r="B24" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="20">
         <v>2500</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="21">
         <v>2500</v>
       </c>
-      <c r="F24" s="38" t="s">
-        <v>124</v>
+      <c r="F24" s="20" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="27"/>
-      <c r="B25" s="40" t="s">
+      <c r="A25" s="35"/>
+      <c r="B25" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="40">
+      <c r="D25" s="22">
         <v>1200</v>
       </c>
-      <c r="E25" s="40">
+      <c r="E25" s="22">
         <v>0</v>
       </c>
-      <c r="F25" s="40" t="s">
-        <v>118</v>
+      <c r="F25" s="22" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="34" t="s">
         <v>72</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -1585,15 +1595,15 @@
       <c r="D26" s="11">
         <v>350</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="26">
         <v>1444</v>
       </c>
-      <c r="F26" s="23" t="s">
-        <v>112</v>
+      <c r="F26" s="26" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="24"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="11" t="s">
         <v>16</v>
       </c>
@@ -1603,11 +1613,11 @@
       <c r="D27" s="11">
         <v>250</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="24"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="11" t="s">
         <v>17</v>
       </c>
@@ -1617,11 +1627,11 @@
       <c r="D28" s="11">
         <v>250</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="24"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="11" t="s">
         <v>30</v>
       </c>
@@ -1631,11 +1641,11 @@
       <c r="D29" s="11">
         <v>500</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="24"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="11" t="s">
         <v>104</v>
       </c>
@@ -1645,11 +1655,11 @@
       <c r="D30" s="11">
         <v>250</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="25"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="11" t="s">
         <v>105</v>
       </c>
@@ -1659,11 +1669,11 @@
       <c r="D31" s="11">
         <v>100</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="34" t="s">
         <v>76</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -1675,15 +1685,15 @@
       <c r="D32" s="3">
         <v>1500</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="26">
         <v>3050</v>
       </c>
-      <c r="F32" s="34" t="s">
+      <c r="F32" s="32" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="24"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="3" t="s">
         <v>23</v>
       </c>
@@ -1693,11 +1703,11 @@
       <c r="D33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="24"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="3" t="s">
         <v>24</v>
       </c>
@@ -1707,11 +1717,11 @@
       <c r="D34" s="3">
         <v>500</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="24"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="3" t="s">
         <v>51</v>
       </c>
@@ -1721,11 +1731,11 @@
       <c r="D35" s="3">
         <v>1200</v>
       </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="24"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
       </c>
@@ -1735,11 +1745,11 @@
       <c r="D36" s="3">
         <v>1000</v>
       </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="25"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="3" t="s">
         <v>78</v>
       </c>
@@ -1749,31 +1759,31 @@
       <c r="D37" s="3">
         <v>600</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="38">
+      <c r="D38" s="20">
         <v>3500</v>
       </c>
-      <c r="E38" s="39">
+      <c r="E38" s="21">
         <v>3500</v>
       </c>
-      <c r="F38" s="38" t="s">
-        <v>120</v>
+      <c r="F38" s="20" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="29"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="10" t="s">
         <v>98</v>
       </c>
@@ -1787,11 +1797,11 @@
         <v>0</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="29"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="5" t="s">
         <v>27</v>
       </c>
@@ -1807,7 +1817,7 @@
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="29"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="5" t="s">
         <v>28</v>
       </c>
@@ -1823,25 +1833,25 @@
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="29"/>
-      <c r="B42" s="40" t="s">
+      <c r="A42" s="40"/>
+      <c r="B42" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="40">
+      <c r="D42" s="22">
         <v>400</v>
       </c>
-      <c r="E42" s="40">
+      <c r="E42" s="22">
         <v>0</v>
       </c>
-      <c r="F42" s="40" t="s">
-        <v>125</v>
+      <c r="F42" s="22" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="27"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="3" t="s">
         <v>79</v>
       </c>
@@ -1859,7 +1869,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="34" t="s">
         <v>81</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -1877,12 +1887,12 @@
       <c r="F44" s="8"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="29"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D45" s="19">
         <v>0</v>
@@ -1891,16 +1901,16 @@
         <v>51</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="27"/>
+      <c r="A46" s="35"/>
       <c r="B46" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D46" s="19">
         <v>0</v>
@@ -1909,11 +1919,11 @@
         <v>102</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="34" t="s">
         <v>64</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -1928,12 +1938,12 @@
       <c r="E47" s="30">
         <v>16500</v>
       </c>
-      <c r="F47" s="28" t="s">
-        <v>119</v>
+      <c r="F47" s="29" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="24"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="3" t="s">
         <v>59</v>
       </c>
@@ -1944,10 +1954,10 @@
         <v>1000</v>
       </c>
       <c r="E48" s="30"/>
-      <c r="F48" s="28"/>
+      <c r="F48" s="29"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="24"/>
+      <c r="A49" s="40"/>
       <c r="B49" s="3" t="s">
         <v>62</v>
       </c>
@@ -1958,10 +1968,10 @@
         <v>500</v>
       </c>
       <c r="E49" s="30"/>
-      <c r="F49" s="28"/>
+      <c r="F49" s="29"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="24"/>
+      <c r="A50" s="40"/>
       <c r="B50" s="3" t="s">
         <v>60</v>
       </c>
@@ -1972,10 +1982,10 @@
         <v>1000</v>
       </c>
       <c r="E50" s="30"/>
-      <c r="F50" s="28"/>
+      <c r="F50" s="29"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="24"/>
+      <c r="A51" s="40"/>
       <c r="B51" s="3" t="s">
         <v>61</v>
       </c>
@@ -1986,10 +1996,10 @@
         <v>800</v>
       </c>
       <c r="E51" s="30"/>
-      <c r="F51" s="28"/>
+      <c r="F51" s="29"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="24"/>
+      <c r="A52" s="40"/>
       <c r="B52" s="10" t="s">
         <v>63</v>
       </c>
@@ -2000,10 +2010,10 @@
         <v>2000</v>
       </c>
       <c r="E52" s="30"/>
-      <c r="F52" s="28"/>
+      <c r="F52" s="29"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="24"/>
+      <c r="A53" s="40"/>
       <c r="B53" s="3" t="s">
         <v>55</v>
       </c>
@@ -2014,15 +2024,15 @@
         <v>1500</v>
       </c>
       <c r="E53" s="30"/>
-      <c r="F53" s="28"/>
+      <c r="F53" s="29"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="25"/>
+      <c r="A54" s="35"/>
       <c r="B54" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="14" t="s">
         <v>113</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>114</v>
       </c>
       <c r="D54" s="14">
         <v>0</v>
@@ -2031,11 +2041,11 @@
         <v>1500</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="41" t="s">
         <v>86</v>
       </c>
       <c r="B55" s="10" t="s">
@@ -2055,7 +2065,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="21"/>
+      <c r="A56" s="42"/>
       <c r="B56" s="6" t="s">
         <v>89</v>
       </c>
@@ -2071,7 +2081,7 @@
       <c r="F56" s="6"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="21"/>
+      <c r="A57" s="42"/>
       <c r="B57" s="6" t="s">
         <v>100</v>
       </c>
@@ -2087,7 +2097,7 @@
       <c r="F57" s="6"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="22"/>
+      <c r="A58" s="43"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -2097,13 +2107,6 @@
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <mergeCells count="22">
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="E8:E13"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="E16:E20"/>
     <mergeCell ref="A55:A58"/>
     <mergeCell ref="A26:A31"/>
     <mergeCell ref="A4:A5"/>
@@ -2119,6 +2122,13 @@
     <mergeCell ref="F26:F31"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A47:A54"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="E8:E13"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="E16:E20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
